--- a/New_home_20241125.xlsx
+++ b/New_home_20241125.xlsx
@@ -10991,7 +10991,7 @@
       </c>
       <c r="E59" s="11" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>10004_1</t>
         </is>
       </c>
       <c r="F59" s="12" t="inlineStr">
@@ -12305,37 +12305,131 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="12" t="n"/>
-      <c r="D68" s="11" t="n"/>
-      <c r="E68" s="11" t="n"/>
-      <c r="F68" s="12" t="n"/>
-      <c r="G68" s="11" t="n"/>
-      <c r="H68" s="18" t="n"/>
-      <c r="I68" s="123" t="n"/>
-      <c r="J68" s="9" t="n"/>
-      <c r="K68" s="7" t="n"/>
-      <c r="L68" s="7" t="n"/>
-      <c r="M68" s="10" t="n"/>
-      <c r="N68" s="10" t="n"/>
-      <c r="O68" s="7" t="n"/>
-      <c r="P68" s="7" t="n"/>
-      <c r="Q68" s="10" t="n"/>
-      <c r="R68" s="10" t="n"/>
-      <c r="S68" s="7" t="n"/>
-      <c r="T68" s="7" t="n"/>
-      <c r="U68" s="10" t="n"/>
-      <c r="V68" s="10" t="n"/>
-      <c r="W68" s="7" t="n"/>
-      <c r="X68" s="7" t="n"/>
-      <c r="Y68" s="7" t="n"/>
-      <c r="Z68" s="7" t="n"/>
-      <c r="AA68" s="7" t="n"/>
-      <c r="AB68" s="7" t="n"/>
-      <c r="AC68" s="14" t="n"/>
-      <c r="AD68" s="18" t="n"/>
-      <c r="AE68" s="13" t="n"/>
-      <c r="AF68" s="13" t="n"/>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E68" s="11" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+      <c r="F68" s="12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18" t="inlineStr"/>
+      <c r="I68" s="123" t="n">
+        <v>276000</v>
+      </c>
+      <c r="J68" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" s="7" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L68" s="7" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="M68" s="10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="N68" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P68" s="7" t="inlineStr">
+        <is>
+          <t>Poble nou</t>
+        </is>
+      </c>
+      <c r="Q68" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="R68" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="S68" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U68" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA68" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC68" s="125" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
+      <c r="AD68" s="18" t="inlineStr"/>
+      <c r="AE68" s="13" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AF68" s="13" t="n">
+        <v>2400</v>
+      </c>
       <c r="AH68" s="13">
         <f>IF(P68="","",AVERAGEIF($P$6:$P$503, P68, $AE$6:$AE$503))</f>
         <v/>
@@ -35415,9 +35509,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -36325,6 +36419,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC65" r:id="rId60"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC66" r:id="rId61"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC67" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC68" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home_20241125.xlsx
+++ b/New_home_20241125.xlsx
@@ -35510,8 +35510,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
